--- a/DAY1/Book7.xlsx
+++ b/DAY1/Book7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3b1bd01281e22f5/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nawin\Downloads\Testing\DAY1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{D8FBF942-FB2E-485E-9FED-4C5BD8A94B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC5F14C0-BFA3-4FEB-92CC-82E67FE20253}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC2EA89-520A-4314-86FD-B1337A9E1390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4336A2DC-CB28-407F-A34E-F259CFFB7ECF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4336A2DC-CB28-407F-A34E-F259CFFB7ECF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>Test Executed By</t>
   </si>
   <si>
-    <t>Adhithya A</t>
-  </si>
-  <si>
     <t>Test Execution Date:</t>
   </si>
   <si>
@@ -152,6 +149,9 @@
 5.Click the login button
 6.Click on user access logs
 </t>
+  </si>
+  <si>
+    <t>Nawinkumar G</t>
   </si>
 </sst>
 </file>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32D702D-241B-49B5-8C0A-FE8E35F6CEAC}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,176 +570,176 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="159.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="216" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
